--- a/Відділ поштових послуг ЦАУ_2021_02_18.xlsx
+++ b/Відділ поштових послуг ЦАУ_2021_02_18.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rudenko-hv\Desktop\1.ГЛЕБ ДОКУМЕНТЫ\1.9 Обучение\1.9.1 Департамент почтовых услуг\Обучение ПП\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rudenko-hv\Desktop\1.ГЛЕБ ДОКУМЕНТЫ\1.7  Шаблоны пользователей 2 версия\1. ДРАФТ 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Загальна '!$A$5:$M$19</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -353,18 +353,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7399C6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -394,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -456,50 +450,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -518,11 +468,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FF7399C6"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -803,7 +748,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -844,52 +789,52 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="20" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="6" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="32"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="20"/>
     </row>
     <row r="5" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
@@ -954,32 +899,32 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="A7" s="18">
         <v>2</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="29">
-        <v>1</v>
-      </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="21" t="s">
+      <c r="B7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="13" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1104,32 +1049,32 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
+      <c r="A12" s="18">
         <v>7</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="29">
-        <v>1</v>
-      </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="21" t="s">
+      <c r="B12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="14">
+        <v>1</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="25" t="s">
+      <c r="J12" s="13" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1254,32 +1199,32 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+      <c r="A17" s="18">
         <v>12</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="29">
-        <v>1</v>
-      </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="21" t="s">
+      <c r="B17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="14">
+        <v>1</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="I17" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="J17" s="21" t="s">
+      <c r="J17" s="10" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1344,32 +1289,32 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="20">
+      <c r="A20" s="18">
         <v>15</v>
       </c>
-      <c r="B20" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="22">
-        <v>1</v>
-      </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="21" t="s">
+      <c r="B20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I20" s="24" t="s">
+      <c r="I20" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="J20" s="25" t="s">
+      <c r="J20" s="13" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1434,32 +1379,32 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="20">
+      <c r="A23" s="18">
         <v>18</v>
       </c>
-      <c r="B23" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="22">
-        <v>1</v>
-      </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="25" t="s">
+      <c r="B23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="H23" s="27" t="s">
+      <c r="H23" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="I23" s="28" t="s">
+      <c r="I23" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="J23" s="25" t="s">
+      <c r="J23" s="13" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1494,32 +1439,32 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="20">
+      <c r="A25" s="18">
         <v>20</v>
       </c>
-      <c r="B25" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="22">
-        <v>1</v>
-      </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="25" t="s">
+      <c r="B25" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="27" t="s">
+      <c r="H25" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="28" t="s">
+      <c r="I25" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="J25" s="25" t="s">
+      <c r="J25" s="13" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1584,32 +1529,32 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="20">
+      <c r="A28" s="18">
         <v>23</v>
       </c>
-      <c r="B28" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="22">
-        <v>1</v>
-      </c>
-      <c r="E28" s="23"/>
-      <c r="F28" s="21" t="s">
+      <c r="B28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G28" s="21" t="s">
+      <c r="G28" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H28" s="26" t="s">
+      <c r="H28" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I28" s="24" t="s">
+      <c r="I28" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="J28" s="25" t="s">
+      <c r="J28" s="13" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1674,32 +1619,32 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="20">
+      <c r="A31" s="18">
         <v>26</v>
       </c>
-      <c r="B31" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="22">
-        <v>1</v>
-      </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="21" t="s">
+      <c r="B31" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="G31" s="21" t="s">
+      <c r="G31" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="H31" s="21" t="s">
+      <c r="H31" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I31" s="24" t="s">
+      <c r="I31" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J31" s="25" t="s">
+      <c r="J31" s="13" t="s">
         <v>44</v>
       </c>
     </row>
